--- a/biology/Zoologie/Ceratinia/Ceratinia.xlsx
+++ b/biology/Zoologie/Ceratinia/Ceratinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratinia est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Danainae, tribu des Ithomiini, sous tribu des Dircennina.
 </t>
@@ -511,14 +523,12 @@
           <t>Historique et  dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Ceratinia a été décrit par l'entomologiste allemand Jacob Hübner en 1816[1].
-L'espèce type pour le genre est Ceratinia tutia (Hübner, 1816)
-Synonymes
-Calloleria (Godman &amp; Salvin, 1879) [2]
-Epileria (Rebel, 1902) [3]
-Teracinia (Röber, 1910) [4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Ceratinia a été décrit par l'entomologiste allemand Jacob Hübner en 1816.
+L'espèce type pour le genre est Ceratinia tutia (Hübner, 1816)</t>
         </is>
       </c>
     </row>
@@ -543,18 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxinomie</t>
+          <t>Historique et  dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des espèces [5]
-Ceratinia cayana (Salvin, 1869)
-Ceratinia iolaia (Hewitson, 1856)
-Ceratinia neso (Hübner, [1806])
-Ceratinia tutia (Hewitson, 1852)
-			Ceratinia neso - MHNT
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calloleria (Godman &amp; Salvin, 1879) 
+Epileria (Rebel, 1902) 
+Teracinia (Röber, 1910) </t>
         </is>
       </c>
     </row>
@@ -579,10 +591,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces 
+Ceratinia cayana (Salvin, 1869)
+Ceratinia iolaia (Hewitson, 1856)
+Ceratinia neso (Hübner, )
+Ceratinia tutia (Hewitson, 1852)
+			Ceratinia neso - MHNT
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ceratinia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ceratinia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident en Amérique Centrale et en Amérique du Sud.
 Sur les autres projets Wikimedia :
